--- a/files/DTC1.xlsx
+++ b/files/DTC1.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="5265" windowHeight="6450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>email</t>
   </si>
@@ -84,10 +85,115 @@
     <t>456-789-1234</t>
   </si>
   <si>
-    <t>complete regesteration data</t>
-  </si>
-  <si>
-    <t>mariana1.2019@yahoo.com</t>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>TC Data</t>
+  </si>
+  <si>
+    <t>verifyssucsessregistration</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Mname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>str1</t>
+  </si>
+  <si>
+    <t>str2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>regoin</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>phone1</t>
+  </si>
+  <si>
+    <t>phone2</t>
+  </si>
+  <si>
+    <t>verifyInvalidEmail</t>
+  </si>
+  <si>
+    <t>verifyEmailConfirmationFelides</t>
+  </si>
+  <si>
+    <t>verifyPasswordContainsAtLeast1Digit</t>
+  </si>
+  <si>
+    <t>verifyPasswordContainsAtLeast1Letter</t>
+  </si>
+  <si>
+    <t>verifyPasswordContainsAtLeast6Characters</t>
+  </si>
+  <si>
+    <t>verifyPasswordNotContainsSameCharacter4Time</t>
+  </si>
+  <si>
+    <t>verifyPasswordConfirmationFiled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifyEmailAddressNotRegistered </t>
+  </si>
+  <si>
+    <t>verifyEmptyRegistrationFields</t>
+  </si>
+  <si>
+    <t>shipFname</t>
+  </si>
+  <si>
+    <t>shipMname</t>
+  </si>
+  <si>
+    <t>shipLname</t>
+  </si>
+  <si>
+    <t>shipcompany</t>
+  </si>
+  <si>
+    <t>shipstr1</t>
+  </si>
+  <si>
+    <t>shipstr2</t>
+  </si>
+  <si>
+    <t>shipcity</t>
+  </si>
+  <si>
+    <t>shipcode</t>
+  </si>
+  <si>
+    <t>shipregoin</t>
+  </si>
+  <si>
+    <t>shipstate</t>
+  </si>
+  <si>
+    <t>shipphone1</t>
+  </si>
+  <si>
+    <t>shipphone2</t>
+  </si>
+  <si>
+    <t>marianaaa1.2019@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -109,15 +215,21 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -125,15 +237,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,210 +614,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="1" max="1" width="41.25" customWidth="1"/>
     <col min="2" max="2" width="34.625" customWidth="1"/>
     <col min="3" max="3" width="35.75" customWidth="1"/>
-    <col min="4" max="4" width="35.125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="43.125" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
     <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="8" max="8" width="5.125" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
     <col min="9" max="9" width="13.125" customWidth="1"/>
     <col min="10" max="10" width="18.125" customWidth="1"/>
     <col min="11" max="11" width="15.125" customWidth="1"/>
     <col min="12" max="12" width="12.875" customWidth="1"/>
     <col min="13" max="13" width="12.25" customWidth="1"/>
+    <col min="14" max="14" width="19.625" customWidth="1"/>
+    <col min="16" max="16" width="16.375" customWidth="1"/>
+    <col min="17" max="17" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="12.75" customWidth="1"/>
+    <col min="19" max="19" width="19.75" customWidth="1"/>
+    <col min="20" max="20" width="15.25" customWidth="1"/>
+    <col min="21" max="21" width="13.75" customWidth="1"/>
+    <col min="22" max="22" width="13.875" customWidth="1"/>
+    <col min="23" max="23" width="13.25" customWidth="1"/>
+    <col min="24" max="24" width="15.375" customWidth="1"/>
+    <col min="28" max="28" width="17.25" customWidth="1"/>
+    <col min="29" max="29" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="8"/>
+    </row>
+    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>10167</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="7" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
         <v>458931756</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
         <v>458931756</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="1">
-        <v>10167</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>21</v>
+    <row r="12" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:AC1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/files/DTC1.xlsx
+++ b/files/DTC1.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
   <si>
     <t>email</t>
   </si>
@@ -193,7 +192,16 @@
     <t>shipphone2</t>
   </si>
   <si>
-    <t>marianaaa1.2019@yahoo.com</t>
+    <t>verifyErrZipCodeRegistration</t>
+  </si>
+  <si>
+    <t>hi.hh@hhh.com</t>
+  </si>
+  <si>
+    <t>verifyEmptyRegistrationInfoFields</t>
+  </si>
+  <si>
+    <t>ma1.2019@yah.com</t>
   </si>
 </sst>
 </file>
@@ -614,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -775,13 +783,13 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
@@ -942,26 +950,96 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="12" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="2">
+        <v>101</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/files/DTC1.xlsx
+++ b/files/DTC1.xlsx
@@ -622,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -950,31 +950,84 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="12" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="2">
+        <v>101</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -986,59 +1039,6 @@
         <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="2">
-        <v>101</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
